--- a/buenos.xlsx
+++ b/buenos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,54 +441,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(1701169501, 3.7175, 3.7393, 0., 0, 1701169501193, 134, 0.)</t>
+          <t>(1701165900, 3.7176, 3.7416, 0., 0, 1701165900621, 134, 0.)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(1701173102, 3.7378, 3.7637, 0., 0, 1701173102074, 134, 0.)</t>
+          <t>(1701169501, 3.7175, 3.7393, 0., 0, 1701169501193, 134, 0.)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(1701176704, 3.7445, 3.7724, 0., 0, 1701176704737, 130, 0.)</t>
+          <t>(1701173102, 3.7378, 3.7637, 0., 0, 1701173102074, 134, 0.)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(1701180305, 3.736, 3.7723, 0., 0, 1701180305693, 4, 0.)</t>
+          <t>(1701176704, 3.7445, 3.7724, 0., 0, 1701176704737, 130, 0.)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(1701183906, 3.7419, 3.7537, 0., 0, 1701183906896, 4, 0.)</t>
+          <t>(1701180305, 3.736, 3.7723, 0., 0, 1701180305693, 4, 0.)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(1701187510, 3.7614, 3.7721, 0., 0, 1701187510503, 130, 0.)</t>
+          <t>(1701183906, 3.7419, 3.7537, 0., 0, 1701183906896, 4, 0.)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(1701191112, 3.7603, 3.7775, 0., 0, 1701191112754, 130, 0.)</t>
+          <t>(1701187510, 3.7614, 3.7721, 0., 0, 1701187510503, 130, 0.)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
+        <is>
+          <t>(1701191112, 3.7603, 3.7775, 0., 0, 1701191112754, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>(1701194713, 3.7592, 3.7797, 0., 0, 1701194713756, 4, 0.)</t>
         </is>

--- a/buenos.xlsx
+++ b/buenos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,56 +441,5208 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(1701169501, 3.7175, 3.7393, 0., 0, 1701169501193, 134, 0.)</t>
+          <t>(1701189362, 190.082, 190.137, 0., 0, 1701189362111, 134, 0.)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(1701173102, 3.7378, 3.7637, 0., 0, 1701173102074, 134, 0.)</t>
+          <t>(1701189423, 190.042, 190.095, 0., 0, 1701189423012, 134, 0.)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(1701176704, 3.7445, 3.7724, 0., 0, 1701176704737, 130, 0.)</t>
+          <t>(1701189484, 189.992, 190.047, 0., 0, 1701189484313, 130, 0.)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(1701180305, 3.736, 3.7723, 0., 0, 1701180305693, 4, 0.)</t>
+          <t>(1701189545, 189.892, 189.93, 0., 0, 1701189545983, 4, 0.)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(1701183906, 3.7419, 3.7537, 0., 0, 1701183906896, 4, 0.)</t>
+          <t>(1701189606, 189.718, 189.77, 0., 0, 1701189606398, 130, 0.)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(1701187510, 3.7614, 3.7721, 0., 0, 1701187510503, 130, 0.)</t>
+          <t>(1701189667, 189.759, 189.805, 0., 0, 1701189667490, 134, 0.)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(1701191112, 3.7603, 3.7775, 0., 0, 1701191112754, 130, 0.)</t>
+          <t>(1701189728, 189.727, 189.777, 0., 0, 1701189728379, 4, 0.)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(1701194713, 3.7592, 3.7797, 0., 0, 1701194713756, 4, 0.)</t>
+          <t>(1701189789, 189.579, 189.625, 0., 0, 1701189789368, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>(1701189850, 189.494, 189.537, 0., 0, 1701189850242, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>(1701189911, 189.628, 189.675, 0., 0, 1701189911446, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>(1701189972, 189.599, 189.637, 0., 0, 1701189972559, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>(1701190033, 189.614, 189.66, 0., 0, 1701190033343, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>(1701190094, 189.547, 189.587, 0., 0, 1701190094510, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>(1701190155, 189.639, 189.677, 0., 0, 1701190155093, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>(1701190216, 189.587, 189.63, 0., 0, 1701190216335, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>(1701190277, 189.499, 189.537, 0., 0, 1701190277723, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>(1701190339, 189.587, 189.632, 0., 0, 1701190339025, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>(1701190400, 189.569, 189.61, 0., 0, 1701190400314, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>(1701190461, 189.589, 189.632, 0., 0, 1701190461045, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(1701190522, 189.669, 189.707, 0., 0, 1701190522056, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(1701190583, 189.629, 189.67, 0., 0, 1701190583333, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>(1701190644, 189.694, 189.747, 0., 0, 1701190644735, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>(1701190705, 189.749, 189.795, 0., 0, 1701190705029, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>(1701190766, 189.687, 189.73, 0., 0, 1701190766318, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(1701190827, 189.899, 189.942, 0., 0, 1701190827007, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>(1701190888, 189.834, 189.88, 0., 0, 1701190888171, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>(1701190949, 189.949, 189.99, 0., 0, 1701190949420, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>(1701191010, 189.863, 189.9, 0., 0, 1701191010123, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>(1701191071, 189.982, 190.02, 0., 0, 1701191071742, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(1701191132, 190.037, 190.072, 0., 0, 1701191132380, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(1701191193, 189.917, 189.95, 0., 0, 1701191193378, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>(1701191254, 189.879, 189.912, 0., 0, 1701191254422, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>(1701191315, 189.819, 189.862, 0., 0, 1701191315186, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>(1701191376, 189.827, 189.867, 0., 0, 1701191376030, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>(1701191437, 189.809, 189.855, 0., 0, 1701191437033, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>(1701191498, 189.749, 189.787, 0., 0, 1701191498408, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>(1701191559, 189.922, 189.958, 0., 0, 1701191559419, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>(1701191620, 189.927, 189.962, 0., 0, 1701191620421, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>(1701191681, 190.017, 190.043, 0., 0, 1701191681341, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>(1701191743, 190.109, 190.15, 0., 0, 1701191743040, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>(1701191804, 190.137, 190.177, 0., 0, 1701191804776, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>(1701191865, 190.149, 190.182, 0., 0, 1701191865128, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>(1701191926, 190.078, 190.117, 0., 0, 1701191926254, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>(1701191987, 190.039, 190.077, 0., 0, 1701191987192, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>(1701192048, 190.012, 190.05, 0., 0, 1701192048900, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>(1701192109, 190.032, 190.07, 0., 0, 1701192109182, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>(1701192170, 190.038, 190.077, 0., 0, 1701192170096, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>(1701192231, 190.022, 190.06, 0., 0, 1701192231180, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>(1701192293, 189.997, 190.03, 0., 0, 1701192293719, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>(1701192356, 189.982, 190.02, 0., 0, 1701192356302, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>(1701192417, 190.032, 190.075, 0., 0, 1701192417198, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>(1701192478, 190.049, 190.081, 0., 0, 1701192478661, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>(1701192539, 190.021, 190.05, 0., 0, 1701192539687, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>(1701192600, 189.962, 190., 0., 0, 1701192600165, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>(1701192661, 190.019, 190.06, 0., 0, 1701192661089, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>(1701192722, 190.057, 190.092, 0., 0, 1701192722046, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>(1701192783, 190.032, 190.07, 0., 0, 1701192783304, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>(1701192844, 190.028, 190.062, 0., 0, 1701192844060, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>(1701192905, 190.007, 190.047, 0., 0, 1701192905016, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>(1701192966, 189.934, 189.972, 0., 0, 1701192966325, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>(1701193029, 190.017, 190.057, 0., 0, 1701193029034, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>(1701193090, 190.054, 190.09, 0., 0, 1701193090403, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>(1701193151, 190.218, 190.253, 0., 0, 1701193151470, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>(1701193212, 190.322, 190.367, 0., 0, 1701193212323, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>(1701193273, 190.352, 190.39, 0., 0, 1701193273119, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>(1701193334, 190.459, 190.505, 0., 0, 1701193334207, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>(1701193395, 190.499, 190.54, 0., 0, 1701193395297, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>(1701193456, 190.417, 190.465, 0., 0, 1701193456357, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>(1701193517, 190.357, 190.402, 0., 0, 1701193517262, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>(1701193578, 190.497, 190.532, 0., 0, 1701193578181, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>(1701193639, 190.387, 190.435, 0., 0, 1701193639342, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>(1701193700, 190.447, 190.487, 0., 0, 1701193700201, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>(1701193761, 190.367, 190.41, 0., 0, 1701193761297, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>(1701193822, 190.402, 190.442, 0., 0, 1701193822637, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>(1701193883, 190.377, 190.425, 0., 0, 1701193883059, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>(1701193944, 190.397, 190.437, 0., 0, 1701193944148, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>(1701194005, 190.359, 190.405, 0., 0, 1701194005485, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>(1701194066, 190.337, 190.38, 0., 0, 1701194066360, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>(1701194127, 190.095, 190.132, 0., 0, 1701194127852, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>(1701194188, 190.087, 190.135, 0., 0, 1701194188466, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>(1701194249, 190.167, 190.202, 0., 0, 1701194249091, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>(1701194310, 190.229, 190.271, 0., 0, 1701194310138, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>(1701194371, 190.139, 190.177, 0., 0, 1701194371048, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>(1701194432, 190.069, 190.1, 0., 0, 1701194432032, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>(1701194493, 190.167, 190.202, 0., 0, 1701194493057, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>(1701194554, 190.219, 190.262, 0., 0, 1701194554152, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>(1701194615, 190.299, 190.33, 0., 0, 1701194615841, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>(1701194676, 190.357, 190.392, 0., 0, 1701194676289, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>(1701194737, 190.349, 190.391, 0., 0, 1701194737812, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>(1701194798, 190.507, 190.555, 0., 0, 1701194798077, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>(1701194859, 190.558, 190.602, 0., 0, 1701194859926, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>(1701194920, 190.519, 190.557, 0., 0, 1701194920161, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>(1701194981, 190.472, 190.512, 0., 0, 1701194981454, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>(1701195042, 190.414, 190.46, 0., 0, 1701195042591, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>(1701195103, 190.429, 190.475, 0., 0, 1701195103173, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>(1701195164, 190.429, 190.467, 0., 0, 1701195164299, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>(1701195226, 190.469, 190.507, 0., 0, 1701195226609, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>(1701195287, 190.519, 190.56, 0., 0, 1701195287053, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>(1701195348, 190.492, 190.528, 0., 0, 1701195348214, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>(1701195409, 190.479, 190.525, 0., 0, 1701195409042, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>(1701195470, 190.447, 190.482, 0., 0, 1701195470567, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>(1701195531, 190.489, 190.531, 0., 0, 1701195531665, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>(1701195593, 190.529, 190.57, 0., 0, 1701195593496, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>(1701195654, 190.582, 190.63, 0., 0, 1701195654927, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>(1701195715, 190.552, 190.591, 0., 0, 1701195715611, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>(1701195776, 190.544, 190.595, 0., 0, 1701195776026, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>(1701195837, 190.472, 190.511, 0., 0, 1701195837261, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>(1701195899, 190.557, 190.6, 0., 0, 1701195899007, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>(1701195960, 190.499, 190.537, 0., 0, 1701195960565, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>(1701196021, 190.494, 190.545, 0., 0, 1701196021874, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>(1701196082, 190.512, 190.55, 0., 0, 1701196082697, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>(1701196143, 190.524, 190.575, 0., 0, 1701196143371, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>(1701196204, 190.564, 190.61, 0., 0, 1701196204599, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>(1701196265, 190.629, 190.66, 0., 0, 1701196265170, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>(1701196326, 190.772, 190.812, 0., 0, 1701196326302, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>(1701196387, 190.882, 190.92, 0., 0, 1701196387793, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>(1701196448, 190.907, 190.952, 0., 0, 1701196448125, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>(1701196509, 191.017, 191.057, 0., 0, 1701196509572, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>(1701196571, 190.952, 190.99, 0., 0, 1701196571099, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>(1701196632, 190.929, 190.96, 0., 0, 1701196632553, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>(1701196693, 190.952, 190.995, 0., 0, 1701196693225, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>(1701196754, 190.904, 190.947, 0., 0, 1701196754063, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>(1701196815, 190.919, 190.95, 0., 0, 1701196815520, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>(1701196876, 190.943, 190.985, 0., 0, 1701196876814, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>(1701196937, 190.869, 190.911, 0., 0, 1701196937858, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>(1701196998, 190.809, 190.84, 0., 0, 1701196998405, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>(1701197059, 190.719, 190.762, 0., 0, 1701197059057, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>(1701197120, 190.772, 190.812, 0., 0, 1701197120519, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>(1701197181, 190.807, 190.847, 0., 0, 1701197181462, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>(1701197242, 190.799, 190.84, 0., 0, 1701197242293, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>(1701197303, 190.802, 190.842, 0., 0, 1701197303145, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>(1701197364, 190.809, 190.842, 0., 0, 1701197364817, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>(1701197426, 190.819, 190.852, 0., 0, 1701197426843, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>(1701197487, 190.812, 190.85, 0., 0, 1701197487150, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>(1701197548, 190.841, 190.874, 0., 0, 1701197548106, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>(1701197609, 190.812, 190.85, 0., 0, 1701197609287, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>(1701197670, 190.752, 190.792, 0., 0, 1701197670948, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>(1701197731, 190.752, 190.792, 0., 0, 1701197731276, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>(1701197794, 190.789, 190.827, 0., 0, 1701197794254, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>(1701197855, 190.722, 190.767, 0., 0, 1701197855355, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>(1701197916, 190.752, 190.79, 0., 0, 1701197916761, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>(1701197977, 190.712, 190.755, 0., 0, 1701197977584, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>(1701198038, 190.749, 190.782, 0., 0, 1701198038503, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>(1701198099, 190.739, 190.78, 0., 0, 1701198099081, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>(1701198160, 190.759, 190.8, 0., 0, 1701198160806, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>(1701198221, 190.758, 190.797, 0., 0, 1701198221862, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>(1701198282, 190.722, 190.775, 0., 0, 1701198282078, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>(1701198343, 190.699, 190.74, 0., 0, 1701198343931, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>(1701198404, 190.637, 190.68, 0., 0, 1701198404273, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>(1701198465, 190.607, 190.64, 0., 0, 1701198465561, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>(1701198526, 190.679, 190.725, 0., 0, 1701198526415, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>(1701198588, 190.659, 190.695, 0., 0, 1701198588913, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>(1701198649, 190.637, 190.677, 0., 0, 1701198649208, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>(1701198710, 190.664, 190.715, 0., 0, 1701198710777, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>(1701198771, 190.649, 190.687, 0., 0, 1701198771331, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>(1701198832, 190.652, 190.69, 0., 0, 1701198832790, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>(1701198893, 190.659, 190.692, 0., 0, 1701198893760, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>(1701198954, 190.609, 190.655, 0., 0, 1701198954432, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>(1701199015, 190.647, 190.68, 0., 0, 1701199015817, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>(1701199076, 190.639, 190.676, 0., 0, 1701199076029, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>(1701199139, 190.674, 190.716, 0., 0, 1701199139570, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>(1701199200, 190.617, 190.652, 0., 0, 1701199200122, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>(1701199261, 190.609, 190.652, 0., 0, 1701199261110, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>(1701199322, 190.629, 190.672, 0., 0, 1701199322437, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>(1701199383, 190.587, 190.62, 0., 0, 1701199383815, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>(1701199444, 190.599, 190.647, 0., 0, 1701199444861, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>(1701199505, 190.569, 190.615, 0., 0, 1701199505118, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>(1701199567, 190.542, 190.58, 0., 0, 1701199567050, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>(1701199628, 190.552, 190.592, 0., 0, 1701199628418, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>(1701199689, 190.499, 190.53, 0., 0, 1701199689261, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>(1701199751, 190.497, 190.541, 0., 0, 1701199751187, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>(1701199812, 190.462, 190.501, 0., 0, 1701199812206, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>(1701199873, 190.322, 190.367, 0., 0, 1701199873250, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>(1701199935, 190.382, 190.422, 0., 0, 1701199935048, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>(1701199996, 190.429, 190.462, 0., 0, 1701199996045, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>(1701200057, 190.394, 190.432, 0., 0, 1701200057259, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>(1701200118, 190.402, 190.447, 0., 0, 1701200118805, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>(1701200180, 190.402, 190.448, 0., 0, 1701200180713, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>(1701200241, 190.452, 190.492, 0., 0, 1701200241179, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>(1701200302, 190.457, 190.5, 0., 0, 1701200302621, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>(1701200363, 190.402, 190.44, 0., 0, 1701200363826, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>(1701200424, 190.419, 190.457, 0., 0, 1701200424258, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>(1701200485, 190.399, 190.437, 0., 0, 1701200485347, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>(1701200547, 190.369, 190.4, 0., 0, 1701200547428, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>(1701200608, 190.399, 190.437, 0., 0, 1701200608128, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>(1701200669, 190.347, 190.38, 0., 0, 1701200669358, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>(1701200730, 190.389, 190.427, 0., 0, 1701200730078, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>(1701200791, 190.379, 190.412, 0., 0, 1701200791482, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>(1701200852, 190.347, 190.391, 0., 0, 1701200852270, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>(1701200913, 190.332, 190.378, 0., 0, 1701200913158, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>(1701200974, 190.317, 190.365, 0., 0, 1701200974343, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>(1701201035, 190.292, 190.33, 0., 0, 1701201035037, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>(1701201097, 190.292, 190.335, 0., 0, 1701201097272, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>(1701201158, 190.274, 190.312, 0., 0, 1701201158404, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>(1701201219, 190.314, 190.365, 0., 0, 1701201219610, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>(1701201282, 190.327, 190.36, 0., 0, 1701201282172, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>(1701201343, 190.319, 190.35, 0., 0, 1701201343719, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>(1701201404, 190.337, 190.368, 0., 0, 1701201404573, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>(1701201467, 190.262, 190.305, 0., 0, 1701201467196, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>(1701201528, 190.257, 190.29, 0., 0, 1701201528609, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>(1701201589, 190.258, 190.297, 0., 0, 1701201589433, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>(1701201654, 190.217, 190.25, 0., 0, 1701201654704, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>(1701201715, 190.234, 190.277, 0., 0, 1701201715120, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>(1701201776, 189.982, 190.03, 0., 0, 1701201776203, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>(1701201837, 189.899, 189.942, 0., 0, 1701201837274, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>(1701201898, 189.932, 189.97, 0., 0, 1701201898010, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>(1701201959, 190.012, 190.051, 0., 0, 1701201959165, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>(1701202020, 190.019, 190.057, 0., 0, 1701202020597, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>(1701202081, 189.977, 190.02, 0., 0, 1701202081781, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>(1701202142, 189.954, 190.002, 0., 0, 1701202142386, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>(1701202203, 189.949, 189.99, 0., 0, 1701202203412, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>(1701202264, 189.937, 189.981, 0., 0, 1701202264510, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>(1701202327, 189.927, 189.971, 0., 0, 1701202327262, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>(1701202388, 189.872, 189.917, 0., 0, 1701202388417, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>(1701202449, 189.862, 189.907, 0., 0, 1701202449289, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>(1701202510, 189.859, 189.897, 0., 0, 1701202510373, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>(1701202571, 189.782, 189.825, 0., 0, 1701202571268, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>(1701202632, 189.842, 189.88, 0., 0, 1701202632450, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>(1701202693, 189.822, 189.867, 0., 0, 1701202693324, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>(1701202754, 189.882, 189.925, 0., 0, 1701202754155, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>(1701202815, 189.919, 189.957, 0., 0, 1701202815464, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>(1701202876, 189.862, 189.915, 0., 0, 1701202876797, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>(1701202937, 189.852, 189.89, 0., 0, 1701202937171, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>(1701202998, 189.847, 189.88, 0., 0, 1701202998165, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>(1701203059, 189.799, 189.837, 0., 0, 1701203059514, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>(1701203120, 189.822, 189.865, 0., 0, 1701203120341, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>(1701203181, 189.854, 189.897, 0., 0, 1701203181432, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>(1701203242, 189.889, 189.927, 0., 0, 1701203242557, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>(1701203303, 189.899, 189.94, 0., 0, 1701203303064, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>(1701203364, 189.979, 190.012, 0., 0, 1701203364489, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>(1701203425, 189.999, 190.037, 0., 0, 1701203425547, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>(1701203486, 189.999, 190.03, 0., 0, 1701203486217, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>(1701203547, 190.019, 190.052, 0., 0, 1701203547166, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>(1701203608, 190.009, 190.045, 0., 0, 1701203608887, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>(1701203670, 189.995, 190.032, 0., 0, 1701203670277, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>(1701203731, 190.007, 190.04, 0., 0, 1701203731172, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>(1701203792, 190.018, 190.057, 0., 0, 1701203792551, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>(1701203853, 189.969, 190., 0., 0, 1701203853803, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>(1701203916, 189.927, 189.962, 0., 0, 1701203916043, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>(1701203977, 189.927, 189.965, 0., 0, 1701203977303, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>(1701204038, 189.989, 190.027, 0., 0, 1701204038498, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>(1701204099, 190.004, 190.051, 0., 0, 1701204099314, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>(1701204160, 190.007, 190.04, 0., 0, 1701204160596, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>(1701204221, 190.014, 190.052, 0., 0, 1701204221657, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>(1701204283, 189.954, 190., 0., 0, 1701204283446, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>(1701204344, 189.972, 190.015, 0., 0, 1701204344522, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>(1701204407, 189.982, 190.021, 0., 0, 1701204407150, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>(1701204468, 189.977, 190.01, 0., 0, 1701204468061, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>(1701204529, 190.054, 190.092, 0., 0, 1701204529473, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>(1701204590, 190.027, 190.06, 0., 0, 1701204590605, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>(1701204651, 189.982, 190.025, 0., 0, 1701204651966, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>(1701204712, 190.042, 190.08, 0., 0, 1701204712003, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>(1701204773, 190.099, 190.145, 0., 0, 1701204773177, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>(1701204834, 190.059, 190.097, 0., 0, 1701204834145, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>(1701204895, 190.034, 190.078, 0., 0, 1701204895500, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>(1701204956, 190.029, 190.067, 0., 0, 1701204956429, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>(1701205017, 189.972, 190.011, 0., 0, 1701205017133, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>(1701205078, 189.904, 189.942, 0., 0, 1701205078294, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>(1701205139, 189.902, 189.941, 0., 0, 1701205139015, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>(1701205200, 189.902, 189.93, 0., 0, 1701205200401, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>(1701205261, 189.884, 189.926, 0., 0, 1701205261439, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>(1701205322, 189.899, 189.945, 0., 0, 1701205322561, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>(1701205383, 189.897, 189.937, 0., 0, 1701205383409, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>(1701205444, 189.917, 189.95, 0., 0, 1701205444449, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>(1701205505, 189.872, 189.912, 0., 0, 1701205505294, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>(1701205566, 189.79, 189.838, 0., 0, 1701205566236, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>(1701205627, 189.784, 189.831, 0., 0, 1701205627591, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>(1701205688, 189.777, 189.81, 0., 0, 1701205688060, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>(1701205749, 189.777, 189.81, 0., 0, 1701205749835, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>(1701205810, 189.782, 189.82, 0., 0, 1701205810456, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>(1701205872, 189.849, 189.88, 0., 0, 1701205872036, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>(1701205933, 189.838, 189.878, 0., 0, 1701205933642, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>(1701205994, 189.839, 189.872, 0., 0, 1701205994076, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>(1701206055, 189.702, 189.74, 0., 0, 1701206055297, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>(1701206116, 189.699, 189.741, 0., 0, 1701206116233, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>(1701206177, 189.759, 189.805, 0., 0, 1701206177381, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>(1701206239, 189.749, 189.79, 0., 0, 1701206239422, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>(1701206300, 189.784, 189.822, 0., 0, 1701206300421, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>(1701206361, 189.758, 189.798, 0., 0, 1701206361080, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>(1701206422, 189.847, 189.887, 0., 0, 1701206422196, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>(1701206483, 189.892, 189.93, 0., 0, 1701206483929, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>(1701206544, 189.909, 189.947, 0., 0, 1701206544046, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>(1701206605, 189.882, 189.925, 0., 0, 1701206605730, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>(1701206666, 189.822, 189.865, 0., 0, 1701206666495, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>(1701206727, 189.829, 189.862, 0., 0, 1701206727029, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>(1701206788, 189.889, 189.93, 0., 0, 1701206788283, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>(1701206849, 189.887, 189.927, 0., 0, 1701206849209, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>(1701206910, 189.809, 189.85, 0., 0, 1701206910217, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>(1701206971, 189.808, 189.847, 0., 0, 1701206971454, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>(1701207032, 189.789, 189.82, 0., 0, 1701207032393, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>(1701207093, 189.727, 189.762, 0., 0, 1701207093142, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>(1701207154, 189.689, 189.721, 0., 0, 1701207154461, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>(1701207215, 189.677, 189.712, 0., 0, 1701207215140, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>(1701207276, 189.712, 189.752, 0., 0, 1701207276440, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>(1701207337, 189.834, 189.878, 0., 0, 1701207337117, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>(1701207398, 189.821, 189.861, 0., 0, 1701207398096, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>(1701207459, 189.849, 189.89, 0., 0, 1701207459638, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>(1701207520, 189.807, 189.845, 0., 0, 1701207520133, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>(1701207581, 189.862, 189.9, 0., 0, 1701207581024, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>(1701207642, 189.949, 189.987, 0., 0, 1701207642314, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>(1701207703, 189.868, 189.907, 0., 0, 1701207703584, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>(1701207764, 189.869, 189.902, 0., 0, 1701207764549, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>(1701207825, 189.922, 189.965, 0., 0, 1701207825041, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>(1701207887, 189.941, 189.977, 0., 0, 1701207887341, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>(1701207948, 189.981, 190.012, 0., 0, 1701207948095, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>(1701208009, 189.941, 189.981, 0., 0, 1701208009713, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>(1701208070, 189.934, 189.98, 0., 0, 1701208070151, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>(1701208131, 189.949, 189.995, 0., 0, 1701208131188, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>(1701208193, 189.962, 190.005, 0., 0, 1701208193582, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>(1701208254, 189.998, 190.032, 0., 0, 1701208254011, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>(1701208315, 190.012, 190.05, 0., 0, 1701208315161, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>(1701208376, 189.992, 190.037, 0., 0, 1701208376266, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>(1701208437, 190.069, 190.102, 0., 0, 1701208437794, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>(1701208498, 190.064, 190.107, 0., 0, 1701208498298, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>(1701208559, 189.992, 190.032, 0., 0, 1701208559526, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>(1701208620, 189.977, 190.025, 0., 0, 1701208620428, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>(1701208681, 190.024, 190.062, 0., 0, 1701208681077, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>(1701208743, 189.992, 190.035, 0., 0, 1701208743412, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>(1701208804, 190.019, 190.065, 0., 0, 1701208804349, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>(1701208865, 189.949, 189.991, 0., 0, 1701208865091, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>(1701208926, 189.904, 189.947, 0., 0, 1701208926984, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>(1701208987, 189.832, 189.871, 0., 0, 1701208987713, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>(1701209049, 189.881, 189.92, 0., 0, 1701209049476, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>(1701209110, 189.864, 189.91, 0., 0, 1701209110606, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>(1701209173, 189.829, 189.867, 0., 0, 1701209173798, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>(1701209235, 189.849, 189.887, 0., 0, 1701209235518, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>(1701209296, 189.844, 189.892, 0., 0, 1701209296145, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>(1701209357, 189.799, 189.841, 0., 0, 1701209357347, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>(1701209418, 189.832, 189.871, 0., 0, 1701209418318, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>(1701209479, 189.814, 189.857, 0., 0, 1701209479341, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>(1701209540, 189.792, 189.835, 0., 0, 1701209540585, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>(1701209601, 189.827, 189.856, 0., 0, 1701209601622, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>(1701209662, 189.788, 189.827, 0., 0, 1701209662423, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>(1701209723, 189.777, 189.81, 0., 0, 1701209723650, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>(1701209784, 189.769, 189.809, 0., 0, 1701209784561, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>(1701209847, 189.749, 189.785, 0., 0, 1701209847665, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>(1701209908, 189.729, 189.772, 0., 0, 1701209908541, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>(1701209971, 189.729, 189.77, 0., 0, 1701209971247, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>(1701210034, 189.742, 189.785, 0., 0, 1701210034503, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>(1701210095, 189.592, 189.632, 0., 0, 1701210095390, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>(1701210156, 189.652, 189.697, 0., 0, 1701210156592, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>(1701210217, 189.678, 189.711, 0., 0, 1701210217092, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>(1701210278, 189.729, 189.767, 0., 0, 1701210278199, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>(1701210340, 189.692, 189.73, 0., 0, 1701210340205, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>(1701210401, 189.735, 189.77, 0., 0, 1701210401219, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>(1701210462, 189.754, 189.792, 0., 0, 1701210462122, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>(1701210523, 189.774, 189.81, 0., 0, 1701210523625, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>(1701210584, 189.804, 189.842, 0., 0, 1701210584766, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>(1701210645, 189.889, 189.927, 0., 0, 1701210645122, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>(1701210706, 189.859, 189.897, 0., 0, 1701210706558, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>(1701210767, 189.779, 189.812, 0., 0, 1701210767059, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>(1701210828, 189.809, 189.842, 0., 0, 1701210828031, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>(1701210889, 189.842, 189.881, 0., 0, 1701210889500, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>(1701210950, 189.862, 189.9, 0., 0, 1701210950363, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>(1701211011, 189.867, 189.901, 0., 0, 1701211011228, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>(1701211072, 189.802, 189.841, 0., 0, 1701211072144, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>(1701211133, 189.814, 189.857, 0., 0, 1701211133568, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>(1701211194, 189.802, 189.85, 0., 0, 1701211194116, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>(1701211255, 189.854, 189.897, 0., 0, 1701211255376, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>(1701211317, 189.872, 189.918, 0., 0, 1701211317182, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>(1701211378, 189.914, 189.952, 0., 0, 1701211378299, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>(1701211439, 189.989, 190.02, 0., 0, 1701211439084, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>(1701211500, 189.967, 190., 0., 0, 1701211500355, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>(1701211561, 189.987, 190.025, 0., 0, 1701211561404, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>(1701211622, 190.047, 190.087, 0., 0, 1701211622561, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>(1701211684, 190.022, 190.061, 0., 0, 1701211684283, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>(1701211745, 190.029, 190.067, 0., 0, 1701211745287, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>(1701211806, 190.164, 190.202, 0., 0, 1701211806089, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>(1701211867, 190.133, 190.171, 0., 0, 1701211867436, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>(1701211928, 190.197, 190.237, 0., 0, 1701211928103, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>(1701211989, 190.193, 190.227, 0., 0, 1701211989519, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>(1701212050, 190.132, 190.172, 0., 0, 1701212050818, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>(1701189362, 190.082, 190.137, 0., 0, 1701189362111, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>(1701189423, 190.042, 190.095, 0., 0, 1701189423012, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>(1701189484, 189.992, 190.047, 0., 0, 1701189484313, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>(1701189545, 189.892, 189.93, 0., 0, 1701189545983, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>(1701189606, 189.718, 189.77, 0., 0, 1701189606398, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>(1701189667, 189.759, 189.805, 0., 0, 1701189667490, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>(1701189728, 189.727, 189.777, 0., 0, 1701189728379, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>(1701189789, 189.579, 189.625, 0., 0, 1701189789368, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>(1701189850, 189.494, 189.537, 0., 0, 1701189850242, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>(1701189911, 189.628, 189.675, 0., 0, 1701189911446, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>(1701189972, 189.599, 189.637, 0., 0, 1701189972559, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>(1701190033, 189.614, 189.66, 0., 0, 1701190033343, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>(1701190094, 189.547, 189.587, 0., 0, 1701190094510, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>(1701190155, 189.639, 189.677, 0., 0, 1701190155093, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>(1701190216, 189.587, 189.63, 0., 0, 1701190216335, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>(1701190277, 189.499, 189.537, 0., 0, 1701190277723, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>(1701190339, 189.587, 189.632, 0., 0, 1701190339025, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>(1701190400, 189.569, 189.61, 0., 0, 1701190400314, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>(1701190461, 189.589, 189.632, 0., 0, 1701190461045, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>(1701190522, 189.669, 189.707, 0., 0, 1701190522056, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>(1701190583, 189.629, 189.67, 0., 0, 1701190583333, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>(1701190644, 189.694, 189.747, 0., 0, 1701190644735, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>(1701190705, 189.749, 189.795, 0., 0, 1701190705029, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>(1701190766, 189.687, 189.73, 0., 0, 1701190766318, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>(1701190827, 189.899, 189.942, 0., 0, 1701190827007, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>(1701190888, 189.834, 189.88, 0., 0, 1701190888171, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>(1701190949, 189.949, 189.99, 0., 0, 1701190949420, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>(1701191010, 189.863, 189.9, 0., 0, 1701191010123, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>(1701191071, 189.982, 190.02, 0., 0, 1701191071742, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>(1701191132, 190.037, 190.072, 0., 0, 1701191132380, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>(1701191193, 189.917, 189.95, 0., 0, 1701191193378, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>(1701191254, 189.879, 189.912, 0., 0, 1701191254422, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>(1701191315, 189.819, 189.862, 0., 0, 1701191315186, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>(1701191376, 189.827, 189.867, 0., 0, 1701191376030, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>(1701191437, 189.809, 189.855, 0., 0, 1701191437033, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>(1701191498, 189.749, 189.787, 0., 0, 1701191498408, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>(1701191559, 189.922, 189.958, 0., 0, 1701191559419, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>(1701191620, 189.927, 189.962, 0., 0, 1701191620421, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>(1701191681, 190.017, 190.043, 0., 0, 1701191681341, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>(1701191743, 190.109, 190.15, 0., 0, 1701191743040, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>(1701191804, 190.137, 190.177, 0., 0, 1701191804776, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>(1701191865, 190.149, 190.182, 0., 0, 1701191865128, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>(1701191926, 190.078, 190.117, 0., 0, 1701191926254, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>(1701191987, 190.039, 190.077, 0., 0, 1701191987192, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>(1701192048, 190.012, 190.05, 0., 0, 1701192048900, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>(1701192109, 190.032, 190.07, 0., 0, 1701192109182, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>(1701192170, 190.038, 190.077, 0., 0, 1701192170096, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>(1701192231, 190.022, 190.06, 0., 0, 1701192231180, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>(1701192293, 189.997, 190.03, 0., 0, 1701192293719, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>(1701192356, 189.982, 190.02, 0., 0, 1701192356302, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>(1701192417, 190.032, 190.075, 0., 0, 1701192417198, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>(1701192478, 190.049, 190.081, 0., 0, 1701192478661, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>(1701192539, 190.021, 190.05, 0., 0, 1701192539687, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>(1701192600, 189.962, 190., 0., 0, 1701192600165, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>(1701192661, 190.019, 190.06, 0., 0, 1701192661089, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>(1701192722, 190.057, 190.092, 0., 0, 1701192722046, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>(1701192783, 190.032, 190.07, 0., 0, 1701192783304, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>(1701192844, 190.028, 190.062, 0., 0, 1701192844060, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>(1701192905, 190.007, 190.047, 0., 0, 1701192905016, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>(1701192966, 189.934, 189.972, 0., 0, 1701192966325, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>(1701193029, 190.017, 190.057, 0., 0, 1701193029034, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>(1701193090, 190.054, 190.09, 0., 0, 1701193090403, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>(1701193151, 190.218, 190.253, 0., 0, 1701193151470, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>(1701193212, 190.322, 190.367, 0., 0, 1701193212323, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>(1701193273, 190.352, 190.39, 0., 0, 1701193273119, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>(1701193334, 190.459, 190.505, 0., 0, 1701193334207, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>(1701193395, 190.499, 190.54, 0., 0, 1701193395297, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>(1701193456, 190.417, 190.465, 0., 0, 1701193456357, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>(1701193517, 190.357, 190.402, 0., 0, 1701193517262, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>(1701193578, 190.497, 190.532, 0., 0, 1701193578181, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>(1701193639, 190.387, 190.435, 0., 0, 1701193639342, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>(1701193700, 190.447, 190.487, 0., 0, 1701193700201, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>(1701193761, 190.367, 190.41, 0., 0, 1701193761297, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>(1701193822, 190.402, 190.442, 0., 0, 1701193822637, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>(1701193883, 190.377, 190.425, 0., 0, 1701193883059, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>(1701193944, 190.397, 190.437, 0., 0, 1701193944148, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>(1701194005, 190.359, 190.405, 0., 0, 1701194005485, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>(1701194066, 190.337, 190.38, 0., 0, 1701194066360, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>(1701194127, 190.095, 190.132, 0., 0, 1701194127852, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>(1701194188, 190.087, 190.135, 0., 0, 1701194188466, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>(1701194249, 190.167, 190.202, 0., 0, 1701194249091, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>(1701194310, 190.229, 190.271, 0., 0, 1701194310138, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>(1701194371, 190.139, 190.177, 0., 0, 1701194371048, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>(1701194432, 190.069, 190.1, 0., 0, 1701194432032, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>(1701194493, 190.167, 190.202, 0., 0, 1701194493057, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>(1701194554, 190.219, 190.262, 0., 0, 1701194554152, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>(1701194615, 190.299, 190.33, 0., 0, 1701194615841, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>(1701194676, 190.357, 190.392, 0., 0, 1701194676289, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>(1701194737, 190.349, 190.391, 0., 0, 1701194737812, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>(1701194798, 190.507, 190.555, 0., 0, 1701194798077, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>(1701194859, 190.558, 190.602, 0., 0, 1701194859926, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>(1701194920, 190.519, 190.557, 0., 0, 1701194920161, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>(1701194981, 190.472, 190.512, 0., 0, 1701194981454, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>(1701195042, 190.414, 190.46, 0., 0, 1701195042591, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>(1701195103, 190.429, 190.475, 0., 0, 1701195103173, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>(1701195164, 190.429, 190.467, 0., 0, 1701195164299, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>(1701195226, 190.469, 190.507, 0., 0, 1701195226609, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>(1701195287, 190.519, 190.56, 0., 0, 1701195287053, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>(1701195348, 190.492, 190.528, 0., 0, 1701195348214, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>(1701195409, 190.479, 190.525, 0., 0, 1701195409042, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>(1701195470, 190.447, 190.482, 0., 0, 1701195470567, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>(1701195531, 190.489, 190.531, 0., 0, 1701195531665, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>(1701195593, 190.529, 190.57, 0., 0, 1701195593496, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>(1701195654, 190.582, 190.63, 0., 0, 1701195654927, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>(1701195715, 190.552, 190.591, 0., 0, 1701195715611, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>(1701195776, 190.544, 190.595, 0., 0, 1701195776026, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>(1701195837, 190.472, 190.511, 0., 0, 1701195837261, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>(1701195899, 190.557, 190.6, 0., 0, 1701195899007, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>(1701195960, 190.499, 190.537, 0., 0, 1701195960565, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>(1701196021, 190.494, 190.545, 0., 0, 1701196021874, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>(1701196082, 190.512, 190.55, 0., 0, 1701196082697, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>(1701196143, 190.524, 190.575, 0., 0, 1701196143371, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>(1701196204, 190.564, 190.61, 0., 0, 1701196204599, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>(1701196265, 190.629, 190.66, 0., 0, 1701196265170, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>(1701196326, 190.772, 190.812, 0., 0, 1701196326302, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>(1701196387, 190.882, 190.92, 0., 0, 1701196387793, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>(1701196448, 190.907, 190.952, 0., 0, 1701196448125, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>(1701196509, 191.017, 191.057, 0., 0, 1701196509572, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>(1701196571, 190.952, 190.99, 0., 0, 1701196571099, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>(1701196632, 190.929, 190.96, 0., 0, 1701196632553, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>(1701196693, 190.952, 190.995, 0., 0, 1701196693225, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>(1701196754, 190.904, 190.947, 0., 0, 1701196754063, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>(1701196815, 190.919, 190.95, 0., 0, 1701196815520, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>(1701196876, 190.943, 190.985, 0., 0, 1701196876814, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>(1701196937, 190.869, 190.911, 0., 0, 1701196937858, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>(1701196998, 190.809, 190.84, 0., 0, 1701196998405, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>(1701197059, 190.719, 190.762, 0., 0, 1701197059057, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>(1701197120, 190.772, 190.812, 0., 0, 1701197120519, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>(1701197181, 190.807, 190.847, 0., 0, 1701197181462, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>(1701197242, 190.799, 190.84, 0., 0, 1701197242293, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>(1701197303, 190.802, 190.842, 0., 0, 1701197303145, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>(1701197364, 190.809, 190.842, 0., 0, 1701197364817, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>(1701197426, 190.819, 190.852, 0., 0, 1701197426843, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>(1701197487, 190.812, 190.85, 0., 0, 1701197487150, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>(1701197548, 190.841, 190.874, 0., 0, 1701197548106, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>(1701197609, 190.812, 190.85, 0., 0, 1701197609287, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>(1701197670, 190.752, 190.792, 0., 0, 1701197670948, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>(1701197731, 190.752, 190.792, 0., 0, 1701197731276, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>(1701197794, 190.789, 190.827, 0., 0, 1701197794254, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>(1701197855, 190.722, 190.767, 0., 0, 1701197855355, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>(1701197916, 190.752, 190.79, 0., 0, 1701197916761, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>(1701197977, 190.712, 190.755, 0., 0, 1701197977584, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>(1701198038, 190.749, 190.782, 0., 0, 1701198038503, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>(1701198099, 190.739, 190.78, 0., 0, 1701198099081, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>(1701198160, 190.759, 190.8, 0., 0, 1701198160806, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>(1701198221, 190.758, 190.797, 0., 0, 1701198221862, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>(1701198282, 190.722, 190.775, 0., 0, 1701198282078, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>(1701198343, 190.699, 190.74, 0., 0, 1701198343931, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>(1701198404, 190.637, 190.68, 0., 0, 1701198404273, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>(1701198465, 190.607, 190.64, 0., 0, 1701198465561, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>(1701198526, 190.679, 190.725, 0., 0, 1701198526415, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>(1701198588, 190.659, 190.695, 0., 0, 1701198588913, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>(1701198649, 190.637, 190.677, 0., 0, 1701198649208, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>(1701198710, 190.664, 190.715, 0., 0, 1701198710777, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>(1701198771, 190.649, 190.687, 0., 0, 1701198771331, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>(1701198832, 190.652, 190.69, 0., 0, 1701198832790, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>(1701198893, 190.659, 190.692, 0., 0, 1701198893760, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>(1701198954, 190.609, 190.655, 0., 0, 1701198954432, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>(1701199015, 190.647, 190.68, 0., 0, 1701199015817, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>(1701199076, 190.639, 190.676, 0., 0, 1701199076029, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>(1701199139, 190.674, 190.716, 0., 0, 1701199139570, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>(1701199200, 190.617, 190.652, 0., 0, 1701199200122, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>(1701199261, 190.609, 190.652, 0., 0, 1701199261110, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>(1701199322, 190.629, 190.672, 0., 0, 1701199322437, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>(1701199383, 190.587, 190.62, 0., 0, 1701199383815, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>(1701199444, 190.599, 190.647, 0., 0, 1701199444861, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>(1701199505, 190.569, 190.615, 0., 0, 1701199505118, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>(1701199567, 190.542, 190.58, 0., 0, 1701199567050, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>(1701199628, 190.552, 190.592, 0., 0, 1701199628418, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>(1701199689, 190.499, 190.53, 0., 0, 1701199689261, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>(1701199751, 190.497, 190.541, 0., 0, 1701199751187, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>(1701199812, 190.462, 190.501, 0., 0, 1701199812206, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>(1701199873, 190.322, 190.367, 0., 0, 1701199873250, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>(1701199935, 190.382, 190.422, 0., 0, 1701199935048, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>(1701199996, 190.429, 190.462, 0., 0, 1701199996045, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>(1701200057, 190.394, 190.432, 0., 0, 1701200057259, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>(1701200118, 190.402, 190.447, 0., 0, 1701200118805, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>(1701200180, 190.402, 190.448, 0., 0, 1701200180713, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>(1701200241, 190.452, 190.492, 0., 0, 1701200241179, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>(1701200302, 190.457, 190.5, 0., 0, 1701200302621, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>(1701200363, 190.402, 190.44, 0., 0, 1701200363826, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>(1701200424, 190.419, 190.457, 0., 0, 1701200424258, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>(1701200485, 190.399, 190.437, 0., 0, 1701200485347, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>(1701200547, 190.369, 190.4, 0., 0, 1701200547428, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>(1701200608, 190.399, 190.437, 0., 0, 1701200608128, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>(1701200669, 190.347, 190.38, 0., 0, 1701200669358, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>(1701200730, 190.389, 190.427, 0., 0, 1701200730078, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>(1701200791, 190.379, 190.412, 0., 0, 1701200791482, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>(1701200852, 190.347, 190.391, 0., 0, 1701200852270, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>(1701200913, 190.332, 190.378, 0., 0, 1701200913158, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>(1701200974, 190.317, 190.365, 0., 0, 1701200974343, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>(1701201035, 190.292, 190.33, 0., 0, 1701201035037, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>(1701201097, 190.292, 190.335, 0., 0, 1701201097272, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>(1701201158, 190.274, 190.312, 0., 0, 1701201158404, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>(1701201219, 190.314, 190.365, 0., 0, 1701201219610, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>(1701201282, 190.327, 190.36, 0., 0, 1701201282172, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>(1701201343, 190.319, 190.35, 0., 0, 1701201343719, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>(1701201404, 190.337, 190.368, 0., 0, 1701201404573, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>(1701201467, 190.262, 190.305, 0., 0, 1701201467196, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>(1701201528, 190.257, 190.29, 0., 0, 1701201528609, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>(1701201589, 190.258, 190.297, 0., 0, 1701201589433, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>(1701201654, 190.217, 190.25, 0., 0, 1701201654704, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>(1701201715, 190.234, 190.277, 0., 0, 1701201715120, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>(1701201776, 189.982, 190.03, 0., 0, 1701201776203, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>(1701201837, 189.899, 189.942, 0., 0, 1701201837274, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>(1701201898, 189.932, 189.97, 0., 0, 1701201898010, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>(1701201959, 190.012, 190.051, 0., 0, 1701201959165, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>(1701202020, 190.019, 190.057, 0., 0, 1701202020597, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>(1701202081, 189.977, 190.02, 0., 0, 1701202081781, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>(1701202142, 189.954, 190.002, 0., 0, 1701202142386, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>(1701202203, 189.949, 189.99, 0., 0, 1701202203412, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>(1701202264, 189.937, 189.981, 0., 0, 1701202264510, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>(1701202327, 189.927, 189.971, 0., 0, 1701202327262, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>(1701202388, 189.872, 189.917, 0., 0, 1701202388417, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>(1701202449, 189.862, 189.907, 0., 0, 1701202449289, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>(1701202510, 189.859, 189.897, 0., 0, 1701202510373, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>(1701202571, 189.782, 189.825, 0., 0, 1701202571268, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>(1701202632, 189.842, 189.88, 0., 0, 1701202632450, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>(1701202693, 189.822, 189.867, 0., 0, 1701202693324, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>(1701202754, 189.882, 189.925, 0., 0, 1701202754155, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>(1701202815, 189.919, 189.957, 0., 0, 1701202815464, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>(1701202876, 189.862, 189.915, 0., 0, 1701202876797, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>(1701202937, 189.852, 189.89, 0., 0, 1701202937171, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>(1701202998, 189.847, 189.88, 0., 0, 1701202998165, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>(1701203059, 189.799, 189.837, 0., 0, 1701203059514, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>(1701203120, 189.822, 189.865, 0., 0, 1701203120341, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>(1701203181, 189.854, 189.897, 0., 0, 1701203181432, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>(1701203242, 189.889, 189.927, 0., 0, 1701203242557, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>(1701203303, 189.899, 189.94, 0., 0, 1701203303064, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>(1701203364, 189.979, 190.012, 0., 0, 1701203364489, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>(1701203425, 189.999, 190.037, 0., 0, 1701203425547, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>(1701203486, 189.999, 190.03, 0., 0, 1701203486217, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>(1701203547, 190.019, 190.052, 0., 0, 1701203547166, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>(1701203608, 190.009, 190.045, 0., 0, 1701203608887, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>(1701203670, 189.995, 190.032, 0., 0, 1701203670277, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>(1701203731, 190.007, 190.04, 0., 0, 1701203731172, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>(1701203792, 190.018, 190.057, 0., 0, 1701203792551, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>(1701203853, 189.969, 190., 0., 0, 1701203853803, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>(1701203916, 189.927, 189.962, 0., 0, 1701203916043, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>(1701203977, 189.927, 189.965, 0., 0, 1701203977303, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>(1701204038, 189.989, 190.027, 0., 0, 1701204038498, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>(1701204099, 190.004, 190.051, 0., 0, 1701204099314, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>(1701204160, 190.007, 190.04, 0., 0, 1701204160596, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>(1701204221, 190.014, 190.052, 0., 0, 1701204221657, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>(1701204283, 189.954, 190., 0., 0, 1701204283446, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>(1701204344, 189.972, 190.015, 0., 0, 1701204344522, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>(1701204407, 189.982, 190.021, 0., 0, 1701204407150, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>(1701204468, 189.977, 190.01, 0., 0, 1701204468061, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>(1701204529, 190.054, 190.092, 0., 0, 1701204529473, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>(1701204590, 190.027, 190.06, 0., 0, 1701204590605, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>(1701204651, 189.982, 190.025, 0., 0, 1701204651966, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>(1701204712, 190.042, 190.08, 0., 0, 1701204712003, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>(1701204773, 190.099, 190.145, 0., 0, 1701204773177, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>(1701204834, 190.059, 190.097, 0., 0, 1701204834145, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>(1701204895, 190.034, 190.078, 0., 0, 1701204895500, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>(1701204956, 190.029, 190.067, 0., 0, 1701204956429, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>(1701205017, 189.972, 190.011, 0., 0, 1701205017133, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>(1701205078, 189.904, 189.942, 0., 0, 1701205078294, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>(1701205139, 189.902, 189.941, 0., 0, 1701205139015, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>(1701205200, 189.902, 189.93, 0., 0, 1701205200401, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>(1701205261, 189.884, 189.926, 0., 0, 1701205261439, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>(1701205322, 189.899, 189.945, 0., 0, 1701205322561, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>(1701205383, 189.897, 189.937, 0., 0, 1701205383409, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>(1701205444, 189.917, 189.95, 0., 0, 1701205444449, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>(1701205505, 189.872, 189.912, 0., 0, 1701205505294, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>(1701205566, 189.79, 189.838, 0., 0, 1701205566236, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>(1701205627, 189.784, 189.831, 0., 0, 1701205627591, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>(1701205688, 189.777, 189.81, 0., 0, 1701205688060, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>(1701205749, 189.777, 189.81, 0., 0, 1701205749835, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>(1701205810, 189.782, 189.82, 0., 0, 1701205810456, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>(1701205872, 189.849, 189.88, 0., 0, 1701205872036, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>(1701205933, 189.838, 189.878, 0., 0, 1701205933642, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>(1701205994, 189.839, 189.872, 0., 0, 1701205994076, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>(1701206055, 189.702, 189.74, 0., 0, 1701206055297, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>(1701206116, 189.699, 189.741, 0., 0, 1701206116233, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>(1701206177, 189.759, 189.805, 0., 0, 1701206177381, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>(1701206239, 189.749, 189.79, 0., 0, 1701206239422, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>(1701206300, 189.784, 189.822, 0., 0, 1701206300421, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>(1701206361, 189.758, 189.798, 0., 0, 1701206361080, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>(1701206422, 189.847, 189.887, 0., 0, 1701206422196, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>(1701206483, 189.892, 189.93, 0., 0, 1701206483929, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>(1701206544, 189.909, 189.947, 0., 0, 1701206544046, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>(1701206605, 189.882, 189.925, 0., 0, 1701206605730, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>(1701206666, 189.822, 189.865, 0., 0, 1701206666495, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>(1701206727, 189.829, 189.862, 0., 0, 1701206727029, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>(1701206788, 189.889, 189.93, 0., 0, 1701206788283, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>(1701206849, 189.887, 189.927, 0., 0, 1701206849209, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>(1701206910, 189.809, 189.85, 0., 0, 1701206910217, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>(1701206971, 189.808, 189.847, 0., 0, 1701206971454, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>(1701207032, 189.789, 189.82, 0., 0, 1701207032393, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>(1701207093, 189.727, 189.762, 0., 0, 1701207093142, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>(1701207154, 189.689, 189.721, 0., 0, 1701207154461, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>(1701207215, 189.677, 189.712, 0., 0, 1701207215140, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>(1701207276, 189.712, 189.752, 0., 0, 1701207276440, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>(1701207337, 189.834, 189.878, 0., 0, 1701207337117, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>(1701207398, 189.821, 189.861, 0., 0, 1701207398096, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>(1701207459, 189.849, 189.89, 0., 0, 1701207459638, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>(1701207520, 189.807, 189.845, 0., 0, 1701207520133, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>(1701207581, 189.862, 189.9, 0., 0, 1701207581024, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>(1701207642, 189.949, 189.987, 0., 0, 1701207642314, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>(1701207703, 189.868, 189.907, 0., 0, 1701207703584, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>(1701207764, 189.869, 189.902, 0., 0, 1701207764549, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>(1701207825, 189.922, 189.965, 0., 0, 1701207825041, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>(1701207887, 189.941, 189.977, 0., 0, 1701207887341, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>(1701207948, 189.981, 190.012, 0., 0, 1701207948095, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>(1701208009, 189.941, 189.981, 0., 0, 1701208009713, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>(1701208070, 189.934, 189.98, 0., 0, 1701208070151, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>(1701208131, 189.949, 189.995, 0., 0, 1701208131188, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>(1701208193, 189.962, 190.005, 0., 0, 1701208193582, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>(1701208254, 189.998, 190.032, 0., 0, 1701208254011, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>(1701208315, 190.012, 190.05, 0., 0, 1701208315161, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>(1701208376, 189.992, 190.037, 0., 0, 1701208376266, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>(1701208437, 190.069, 190.102, 0., 0, 1701208437794, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>(1701208498, 190.064, 190.107, 0., 0, 1701208498298, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>(1701208559, 189.992, 190.032, 0., 0, 1701208559526, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>(1701208620, 189.977, 190.025, 0., 0, 1701208620428, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>(1701208681, 190.024, 190.062, 0., 0, 1701208681077, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>(1701208743, 189.992, 190.035, 0., 0, 1701208743412, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>(1701208804, 190.019, 190.065, 0., 0, 1701208804349, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>(1701208865, 189.949, 189.991, 0., 0, 1701208865091, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>(1701208926, 189.904, 189.947, 0., 0, 1701208926984, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>(1701208987, 189.832, 189.871, 0., 0, 1701208987713, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>(1701209049, 189.881, 189.92, 0., 0, 1701209049476, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>(1701209110, 189.864, 189.91, 0., 0, 1701209110606, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>(1701209173, 189.829, 189.867, 0., 0, 1701209173798, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>(1701209235, 189.849, 189.887, 0., 0, 1701209235518, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>(1701209296, 189.844, 189.892, 0., 0, 1701209296145, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>(1701209357, 189.799, 189.841, 0., 0, 1701209357347, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>(1701209418, 189.832, 189.871, 0., 0, 1701209418318, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>(1701209479, 189.814, 189.857, 0., 0, 1701209479341, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>(1701209540, 189.792, 189.835, 0., 0, 1701209540585, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>(1701209601, 189.827, 189.856, 0., 0, 1701209601622, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>(1701209662, 189.788, 189.827, 0., 0, 1701209662423, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>(1701209723, 189.777, 189.81, 0., 0, 1701209723650, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>(1701209784, 189.769, 189.809, 0., 0, 1701209784561, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>(1701209847, 189.749, 189.785, 0., 0, 1701209847665, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>(1701209908, 189.729, 189.772, 0., 0, 1701209908541, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>(1701209971, 189.729, 189.77, 0., 0, 1701209971247, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>(1701210034, 189.742, 189.785, 0., 0, 1701210034503, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>(1701210095, 189.592, 189.632, 0., 0, 1701210095390, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>(1701210156, 189.652, 189.697, 0., 0, 1701210156592, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>(1701210217, 189.678, 189.711, 0., 0, 1701210217092, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>(1701210278, 189.729, 189.767, 0., 0, 1701210278199, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>(1701210340, 189.692, 189.73, 0., 0, 1701210340205, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>(1701210401, 189.735, 189.77, 0., 0, 1701210401219, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>(1701210462, 189.754, 189.792, 0., 0, 1701210462122, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>(1701210523, 189.774, 189.81, 0., 0, 1701210523625, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>(1701210584, 189.804, 189.842, 0., 0, 1701210584766, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>(1701210645, 189.889, 189.927, 0., 0, 1701210645122, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>(1701210706, 189.859, 189.897, 0., 0, 1701210706558, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>(1701210767, 189.779, 189.812, 0., 0, 1701210767059, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>(1701210828, 189.809, 189.842, 0., 0, 1701210828031, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>(1701210889, 189.842, 189.881, 0., 0, 1701210889500, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>(1701210950, 189.862, 189.9, 0., 0, 1701210950363, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>(1701211011, 189.867, 189.901, 0., 0, 1701211011228, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>(1701211072, 189.802, 189.841, 0., 0, 1701211072144, 4, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>(1701211133, 189.814, 189.857, 0., 0, 1701211133568, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>(1701211194, 189.802, 189.85, 0., 0, 1701211194116, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>(1701211255, 189.854, 189.897, 0., 0, 1701211255376, 130, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>(1701211317, 189.872, 189.918, 0., 0, 1701211317182, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>(1701211378, 189.914, 189.952, 0., 0, 1701211378299, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>(1701211439, 189.989, 190.02, 0., 0, 1701211439084, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>(1701211500, 189.967, 190., 0., 0, 1701211500355, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>(1701211561, 189.987, 190.025, 0., 0, 1701211561404, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>(1701211622, 190.047, 190.087, 0., 0, 1701211622561, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>(1701211684, 190.022, 190.061, 0., 0, 1701211684283, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>(1701211745, 190.029, 190.067, 0., 0, 1701211745287, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>(1701211806, 190.164, 190.202, 0., 0, 1701211806089, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>(1701211867, 190.133, 190.171, 0., 0, 1701211867436, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>(1701211928, 190.197, 190.237, 0., 0, 1701211928103, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>(1701211989, 190.193, 190.227, 0., 0, 1701211989519, 134, 0.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>(1701212050, 190.132, 190.172, 0., 0, 1701212050818, 134, 0.)</t>
         </is>
       </c>
     </row>
